--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y505"/>
+  <dimension ref="A1:Y509"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29971,7 +29971,7 @@
       </c>
       <c r="R504" s="2" t="inlineStr"/>
     </row>
-    <row r="505">
+    <row r="505" ht="15" customHeight="1">
       <c r="A505" t="inlineStr">
         <is>
           <t>A 40137-2023</t>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30027,6 +30027,234 @@
         <v>0</v>
       </c>
       <c r="R505" s="2" t="inlineStr"/>
+    </row>
+    <row r="506" ht="15" customHeight="1">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>A 42531-2023</t>
+        </is>
+      </c>
+      <c r="B506" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C506" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D506" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E506" t="inlineStr">
+        <is>
+          <t>ULRICEHAMN</t>
+        </is>
+      </c>
+      <c r="G506" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="H506" t="n">
+        <v>0</v>
+      </c>
+      <c r="I506" t="n">
+        <v>0</v>
+      </c>
+      <c r="J506" t="n">
+        <v>0</v>
+      </c>
+      <c r="K506" t="n">
+        <v>0</v>
+      </c>
+      <c r="L506" t="n">
+        <v>0</v>
+      </c>
+      <c r="M506" t="n">
+        <v>0</v>
+      </c>
+      <c r="N506" t="n">
+        <v>0</v>
+      </c>
+      <c r="O506" t="n">
+        <v>0</v>
+      </c>
+      <c r="P506" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q506" t="n">
+        <v>0</v>
+      </c>
+      <c r="R506" s="2" t="inlineStr"/>
+    </row>
+    <row r="507" ht="15" customHeight="1">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>A 42677-2023</t>
+        </is>
+      </c>
+      <c r="B507" s="1" t="n">
+        <v>45181</v>
+      </c>
+      <c r="C507" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D507" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E507" t="inlineStr">
+        <is>
+          <t>ULRICEHAMN</t>
+        </is>
+      </c>
+      <c r="G507" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H507" t="n">
+        <v>0</v>
+      </c>
+      <c r="I507" t="n">
+        <v>0</v>
+      </c>
+      <c r="J507" t="n">
+        <v>0</v>
+      </c>
+      <c r="K507" t="n">
+        <v>0</v>
+      </c>
+      <c r="L507" t="n">
+        <v>0</v>
+      </c>
+      <c r="M507" t="n">
+        <v>0</v>
+      </c>
+      <c r="N507" t="n">
+        <v>0</v>
+      </c>
+      <c r="O507" t="n">
+        <v>0</v>
+      </c>
+      <c r="P507" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q507" t="n">
+        <v>0</v>
+      </c>
+      <c r="R507" s="2" t="inlineStr"/>
+    </row>
+    <row r="508" ht="15" customHeight="1">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>A 42799-2023</t>
+        </is>
+      </c>
+      <c r="B508" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C508" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D508" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E508" t="inlineStr">
+        <is>
+          <t>ULRICEHAMN</t>
+        </is>
+      </c>
+      <c r="G508" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H508" t="n">
+        <v>0</v>
+      </c>
+      <c r="I508" t="n">
+        <v>0</v>
+      </c>
+      <c r="J508" t="n">
+        <v>0</v>
+      </c>
+      <c r="K508" t="n">
+        <v>0</v>
+      </c>
+      <c r="L508" t="n">
+        <v>0</v>
+      </c>
+      <c r="M508" t="n">
+        <v>0</v>
+      </c>
+      <c r="N508" t="n">
+        <v>0</v>
+      </c>
+      <c r="O508" t="n">
+        <v>0</v>
+      </c>
+      <c r="P508" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q508" t="n">
+        <v>0</v>
+      </c>
+      <c r="R508" s="2" t="inlineStr"/>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>A 42800-2023</t>
+        </is>
+      </c>
+      <c r="B509" s="1" t="n">
+        <v>45182</v>
+      </c>
+      <c r="C509" s="1" t="n">
+        <v>45184</v>
+      </c>
+      <c r="D509" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E509" t="inlineStr">
+        <is>
+          <t>ULRICEHAMN</t>
+        </is>
+      </c>
+      <c r="G509" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="H509" t="n">
+        <v>0</v>
+      </c>
+      <c r="I509" t="n">
+        <v>0</v>
+      </c>
+      <c r="J509" t="n">
+        <v>0</v>
+      </c>
+      <c r="K509" t="n">
+        <v>0</v>
+      </c>
+      <c r="L509" t="n">
+        <v>0</v>
+      </c>
+      <c r="M509" t="n">
+        <v>0</v>
+      </c>
+      <c r="N509" t="n">
+        <v>0</v>
+      </c>
+      <c r="O509" t="n">
+        <v>0</v>
+      </c>
+      <c r="P509" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q509" t="n">
+        <v>0</v>
+      </c>
+      <c r="R509" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -624,27 +624,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 65336-2019.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 65336-2019.xlsx", "A 65336-2019")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 65336-2019.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 65336-2019.png", "A 65336-2019")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 65336-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 65336-2019.docx", "A 65336-2019")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 65336-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 65336-2019.docx", "A 65336-2019")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 65336-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 65336-2019.docx", "A 65336-2019")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 65336-2019.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 65336-2019.docx", "A 65336-2019")</f>
         <v/>
       </c>
     </row>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -715,27 +715,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 66731-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 66731-2021.xlsx", "A 66731-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 66731-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 66731-2021.png", "A 66731-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 66731-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 66731-2021.docx", "A 66731-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 66731-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 66731-2021.docx", "A 66731-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 66731-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 66731-2021.docx", "A 66731-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 66731-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 66731-2021.docx", "A 66731-2021")</f>
         <v/>
       </c>
     </row>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -801,27 +801,27 @@
         </is>
       </c>
       <c r="S4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 3495-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 3495-2022.xlsx", "A 3495-2022")</f>
         <v/>
       </c>
       <c r="T4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 3495-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 3495-2022.png", "A 3495-2022")</f>
         <v/>
       </c>
       <c r="V4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 3495-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 3495-2022.docx", "A 3495-2022")</f>
         <v/>
       </c>
       <c r="W4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 3495-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 3495-2022.docx", "A 3495-2022")</f>
         <v/>
       </c>
       <c r="X4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 3495-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 3495-2022.docx", "A 3495-2022")</f>
         <v/>
       </c>
       <c r="Y4">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 3495-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 3495-2022.docx", "A 3495-2022")</f>
         <v/>
       </c>
     </row>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -886,27 +886,27 @@
         </is>
       </c>
       <c r="S5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 65688-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 65688-2018.xlsx", "A 65688-2018")</f>
         <v/>
       </c>
       <c r="T5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 65688-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 65688-2018.png", "A 65688-2018")</f>
         <v/>
       </c>
       <c r="V5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 65688-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 65688-2018.docx", "A 65688-2018")</f>
         <v/>
       </c>
       <c r="W5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 65688-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 65688-2018.docx", "A 65688-2018")</f>
         <v/>
       </c>
       <c r="X5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 65688-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 65688-2018.docx", "A 65688-2018")</f>
         <v/>
       </c>
       <c r="Y5">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 65688-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 65688-2018.docx", "A 65688-2018")</f>
         <v/>
       </c>
     </row>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -971,27 +971,27 @@
         </is>
       </c>
       <c r="S6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 66936-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 66936-2018.xlsx", "A 66936-2018")</f>
         <v/>
       </c>
       <c r="T6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 66936-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 66936-2018.png", "A 66936-2018")</f>
         <v/>
       </c>
       <c r="V6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 66936-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 66936-2018.docx", "A 66936-2018")</f>
         <v/>
       </c>
       <c r="W6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 66936-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 66936-2018.docx", "A 66936-2018")</f>
         <v/>
       </c>
       <c r="X6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 66936-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 66936-2018.docx", "A 66936-2018")</f>
         <v/>
       </c>
       <c r="Y6">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 66936-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 66936-2018.docx", "A 66936-2018")</f>
         <v/>
       </c>
     </row>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1061,27 +1061,27 @@
         </is>
       </c>
       <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 5136-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 5136-2020.xlsx", "A 5136-2020")</f>
         <v/>
       </c>
       <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 5136-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 5136-2020.png", "A 5136-2020")</f>
         <v/>
       </c>
       <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 5136-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 5136-2020.docx", "A 5136-2020")</f>
         <v/>
       </c>
       <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 5136-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 5136-2020.docx", "A 5136-2020")</f>
         <v/>
       </c>
       <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 5136-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 5136-2020.docx", "A 5136-2020")</f>
         <v/>
       </c>
       <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 5136-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 5136-2020.docx", "A 5136-2020")</f>
         <v/>
       </c>
     </row>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1151,27 +1151,27 @@
         </is>
       </c>
       <c r="S8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 5148-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 5148-2020.xlsx", "A 5148-2020")</f>
         <v/>
       </c>
       <c r="T8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 5148-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 5148-2020.png", "A 5148-2020")</f>
         <v/>
       </c>
       <c r="V8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 5148-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 5148-2020.docx", "A 5148-2020")</f>
         <v/>
       </c>
       <c r="W8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 5148-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 5148-2020.docx", "A 5148-2020")</f>
         <v/>
       </c>
       <c r="X8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 5148-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 5148-2020.docx", "A 5148-2020")</f>
         <v/>
       </c>
       <c r="Y8">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 5148-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 5148-2020.docx", "A 5148-2020")</f>
         <v/>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1236,27 +1236,27 @@
         </is>
       </c>
       <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 53041-2020.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 53041-2020.xlsx", "A 53041-2020")</f>
         <v/>
       </c>
       <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 53041-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 53041-2020.png", "A 53041-2020")</f>
         <v/>
       </c>
       <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 53041-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 53041-2020.docx", "A 53041-2020")</f>
         <v/>
       </c>
       <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 53041-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 53041-2020.docx", "A 53041-2020")</f>
         <v/>
       </c>
       <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 53041-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 53041-2020.docx", "A 53041-2020")</f>
         <v/>
       </c>
       <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 53041-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 53041-2020.docx", "A 53041-2020")</f>
         <v/>
       </c>
     </row>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1326,27 +1326,27 @@
         </is>
       </c>
       <c r="S10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 48150-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 48150-2021.xlsx", "A 48150-2021")</f>
         <v/>
       </c>
       <c r="T10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 48150-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 48150-2021.png", "A 48150-2021")</f>
         <v/>
       </c>
       <c r="V10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 48150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 48150-2021.docx", "A 48150-2021")</f>
         <v/>
       </c>
       <c r="W10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 48150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 48150-2021.docx", "A 48150-2021")</f>
         <v/>
       </c>
       <c r="X10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 48150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 48150-2021.docx", "A 48150-2021")</f>
         <v/>
       </c>
       <c r="Y10">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 48150-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 48150-2021.docx", "A 48150-2021")</f>
         <v/>
       </c>
     </row>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1411,27 +1411,27 @@
         </is>
       </c>
       <c r="S11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 50555-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 50555-2021.xlsx", "A 50555-2021")</f>
         <v/>
       </c>
       <c r="T11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 50555-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 50555-2021.png", "A 50555-2021")</f>
         <v/>
       </c>
       <c r="V11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 50555-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 50555-2021.docx", "A 50555-2021")</f>
         <v/>
       </c>
       <c r="W11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 50555-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 50555-2021.docx", "A 50555-2021")</f>
         <v/>
       </c>
       <c r="X11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 50555-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 50555-2021.docx", "A 50555-2021")</f>
         <v/>
       </c>
       <c r="Y11">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 50555-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 50555-2021.docx", "A 50555-2021")</f>
         <v/>
       </c>
     </row>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1496,27 +1496,27 @@
         </is>
       </c>
       <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 64810-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 64810-2021.xlsx", "A 64810-2021")</f>
         <v/>
       </c>
       <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 64810-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 64810-2021.png", "A 64810-2021")</f>
         <v/>
       </c>
       <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 64810-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 64810-2021.docx", "A 64810-2021")</f>
         <v/>
       </c>
       <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 64810-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 64810-2021.docx", "A 64810-2021")</f>
         <v/>
       </c>
       <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 64810-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 64810-2021.docx", "A 64810-2021")</f>
         <v/>
       </c>
       <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 64810-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 64810-2021.docx", "A 64810-2021")</f>
         <v/>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1586,27 +1586,27 @@
         </is>
       </c>
       <c r="S13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 18959-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 18959-2022.xlsx", "A 18959-2022")</f>
         <v/>
       </c>
       <c r="T13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 18959-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 18959-2022.png", "A 18959-2022")</f>
         <v/>
       </c>
       <c r="V13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 18959-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 18959-2022.docx", "A 18959-2022")</f>
         <v/>
       </c>
       <c r="W13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 18959-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 18959-2022.docx", "A 18959-2022")</f>
         <v/>
       </c>
       <c r="X13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 18959-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 18959-2022.docx", "A 18959-2022")</f>
         <v/>
       </c>
       <c r="Y13">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 18959-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 18959-2022.docx", "A 18959-2022")</f>
         <v/>
       </c>
     </row>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1671,27 +1671,27 @@
         </is>
       </c>
       <c r="S14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 51770-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 51770-2022.xlsx", "A 51770-2022")</f>
         <v/>
       </c>
       <c r="T14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 51770-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 51770-2022.png", "A 51770-2022")</f>
         <v/>
       </c>
       <c r="V14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 51770-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 51770-2022.docx", "A 51770-2022")</f>
         <v/>
       </c>
       <c r="W14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 51770-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 51770-2022.docx", "A 51770-2022")</f>
         <v/>
       </c>
       <c r="X14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 51770-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 51770-2022.docx", "A 51770-2022")</f>
         <v/>
       </c>
       <c r="Y14">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 51770-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 51770-2022.docx", "A 51770-2022")</f>
         <v/>
       </c>
     </row>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1756,27 +1756,27 @@
         </is>
       </c>
       <c r="S15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 53555-2022.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 53555-2022.xlsx", "A 53555-2022")</f>
         <v/>
       </c>
       <c r="T15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 53555-2022.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 53555-2022.png", "A 53555-2022")</f>
         <v/>
       </c>
       <c r="V15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 53555-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 53555-2022.docx", "A 53555-2022")</f>
         <v/>
       </c>
       <c r="W15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 53555-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 53555-2022.docx", "A 53555-2022")</f>
         <v/>
       </c>
       <c r="X15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 53555-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 53555-2022.docx", "A 53555-2022")</f>
         <v/>
       </c>
       <c r="Y15">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 53555-2022.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 53555-2022.docx", "A 53555-2022")</f>
         <v/>
       </c>
     </row>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1841,27 +1841,27 @@
         </is>
       </c>
       <c r="S16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 34766-2023.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/artfynd/A 34766-2023.xlsx", "A 34766-2023")</f>
         <v/>
       </c>
       <c r="T16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 34766-2023.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/kartor/A 34766-2023.png", "A 34766-2023")</f>
         <v/>
       </c>
       <c r="V16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 34766-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 34766-2023.docx", "A 34766-2023")</f>
         <v/>
       </c>
       <c r="W16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 34766-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 34766-2023.docx", "A 34766-2023")</f>
         <v/>
       </c>
       <c r="X16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 34766-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 34766-2023.docx", "A 34766-2023")</f>
         <v/>
       </c>
       <c r="Y16">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 34766-2023.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 34766-2023.docx", "A 34766-2023")</f>
         <v/>
       </c>
     </row>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9858,23 +9858,23 @@
       </c>
       <c r="R155" s="2" t="inlineStr"/>
       <c r="U155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/knärot/A 1285-2020.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/knärot/A 1285-2020.png", "A 1285-2020")</f>
         <v/>
       </c>
       <c r="V155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 1285-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomål/A 1285-2020.docx", "A 1285-2020")</f>
         <v/>
       </c>
       <c r="W155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 1285-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/klagomålsmail/A 1285-2020.docx", "A 1285-2020")</f>
         <v/>
       </c>
       <c r="X155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 1285-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsyn/A 1285-2020.docx", "A 1285-2020")</f>
         <v/>
       </c>
       <c r="Y155">
-        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 1285-2020.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_ULRICEHAMN/tillsynsmail/A 1285-2020.docx", "A 1285-2020")</f>
         <v/>
       </c>
     </row>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45181</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45181</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45182</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>45182</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45181</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45181</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45182</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>45182</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45181</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45181</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45182</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>45182</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45181</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45181</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45182</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>45182</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y509"/>
+  <dimension ref="A1:Y511"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45181</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45181</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45182</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30199,7 +30199,7 @@
       </c>
       <c r="R508" s="2" t="inlineStr"/>
     </row>
-    <row r="509">
+    <row r="509" ht="15" customHeight="1">
       <c r="A509" t="inlineStr">
         <is>
           <t>A 42800-2023</t>
@@ -30209,7 +30209,7 @@
         <v>45182</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30255,6 +30255,120 @@
         <v>0</v>
       </c>
       <c r="R509" s="2" t="inlineStr"/>
+    </row>
+    <row r="510" ht="15" customHeight="1">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>A 44463-2023</t>
+        </is>
+      </c>
+      <c r="B510" s="1" t="n">
+        <v>45189</v>
+      </c>
+      <c r="C510" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D510" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E510" t="inlineStr">
+        <is>
+          <t>ULRICEHAMN</t>
+        </is>
+      </c>
+      <c r="G510" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="H510" t="n">
+        <v>0</v>
+      </c>
+      <c r="I510" t="n">
+        <v>0</v>
+      </c>
+      <c r="J510" t="n">
+        <v>0</v>
+      </c>
+      <c r="K510" t="n">
+        <v>0</v>
+      </c>
+      <c r="L510" t="n">
+        <v>0</v>
+      </c>
+      <c r="M510" t="n">
+        <v>0</v>
+      </c>
+      <c r="N510" t="n">
+        <v>0</v>
+      </c>
+      <c r="O510" t="n">
+        <v>0</v>
+      </c>
+      <c r="P510" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q510" t="n">
+        <v>0</v>
+      </c>
+      <c r="R510" s="2" t="inlineStr"/>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>A 44930-2023</t>
+        </is>
+      </c>
+      <c r="B511" s="1" t="n">
+        <v>45190</v>
+      </c>
+      <c r="C511" s="1" t="n">
+        <v>45192</v>
+      </c>
+      <c r="D511" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E511" t="inlineStr">
+        <is>
+          <t>ULRICEHAMN</t>
+        </is>
+      </c>
+      <c r="G511" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="H511" t="n">
+        <v>0</v>
+      </c>
+      <c r="I511" t="n">
+        <v>0</v>
+      </c>
+      <c r="J511" t="n">
+        <v>0</v>
+      </c>
+      <c r="K511" t="n">
+        <v>0</v>
+      </c>
+      <c r="L511" t="n">
+        <v>0</v>
+      </c>
+      <c r="M511" t="n">
+        <v>0</v>
+      </c>
+      <c r="N511" t="n">
+        <v>0</v>
+      </c>
+      <c r="O511" t="n">
+        <v>0</v>
+      </c>
+      <c r="P511" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q511" t="n">
+        <v>0</v>
+      </c>
+      <c r="R511" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -420,7 +420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y511"/>
+  <dimension ref="A1:Y512"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45181</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45181</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45182</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>45182</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30266,7 +30266,7 @@
         <v>45189</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30313,7 +30313,7 @@
       </c>
       <c r="R510" s="2" t="inlineStr"/>
     </row>
-    <row r="511">
+    <row r="511" ht="15" customHeight="1">
       <c r="A511" t="inlineStr">
         <is>
           <t>A 44930-2023</t>
@@ -30323,7 +30323,7 @@
         <v>45190</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30369,6 +30369,63 @@
         <v>0</v>
       </c>
       <c r="R511" s="2" t="inlineStr"/>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>A 45532-2023</t>
+        </is>
+      </c>
+      <c r="B512" s="1" t="n">
+        <v>45194</v>
+      </c>
+      <c r="C512" s="1" t="n">
+        <v>45202</v>
+      </c>
+      <c r="D512" t="inlineStr">
+        <is>
+          <t>VÄSTRA GÖTALANDS LÄN</t>
+        </is>
+      </c>
+      <c r="E512" t="inlineStr">
+        <is>
+          <t>ULRICEHAMN</t>
+        </is>
+      </c>
+      <c r="G512" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H512" t="n">
+        <v>0</v>
+      </c>
+      <c r="I512" t="n">
+        <v>0</v>
+      </c>
+      <c r="J512" t="n">
+        <v>0</v>
+      </c>
+      <c r="K512" t="n">
+        <v>0</v>
+      </c>
+      <c r="L512" t="n">
+        <v>0</v>
+      </c>
+      <c r="M512" t="n">
+        <v>0</v>
+      </c>
+      <c r="N512" t="n">
+        <v>0</v>
+      </c>
+      <c r="O512" t="n">
+        <v>0</v>
+      </c>
+      <c r="P512" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q512" t="n">
+        <v>0</v>
+      </c>
+      <c r="R512" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45181</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45181</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45182</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>45182</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30266,7 +30266,7 @@
         <v>45189</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45190</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>45194</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45181</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45181</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45182</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>45182</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30266,7 +30266,7 @@
         <v>45189</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45190</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>45194</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>

--- a/Översikt ULRICEHAMN.xlsx
+++ b/Översikt ULRICEHAMN.xlsx
@@ -572,7 +572,7 @@
         <v>43802</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -658,7 +658,7 @@
         <v>44520</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -749,7 +749,7 @@
         <v>44585</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -835,7 +835,7 @@
         <v>43433</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         <v>43438</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1005,7 +1005,7 @@
         <v>43860</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1095,7 +1095,7 @@
         <v>43860</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>44120</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>44449</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1360,7 +1360,7 @@
         <v>44455</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>44512</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>44690</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1620,7 +1620,7 @@
         <v>44872</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>44879</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1790,7 +1790,7 @@
         <v>45140</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1875,7 +1875,7 @@
         <v>43334</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1932,7 +1932,7 @@
         <v>43334</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1989,7 +1989,7 @@
         <v>43339</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2046,7 +2046,7 @@
         <v>43339</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2108,7 +2108,7 @@
         <v>43346</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2165,7 +2165,7 @@
         <v>43348</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2222,7 +2222,7 @@
         <v>43349</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2279,7 +2279,7 @@
         <v>43349</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2336,7 +2336,7 @@
         <v>43353</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2393,7 +2393,7 @@
         <v>43356</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2450,7 +2450,7 @@
         <v>43358</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2507,7 +2507,7 @@
         <v>43360</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2569,7 +2569,7 @@
         <v>43362</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2626,7 +2626,7 @@
         <v>43363</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2683,7 +2683,7 @@
         <v>43377</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>43388</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2797,7 +2797,7 @@
         <v>43390</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2854,7 +2854,7 @@
         <v>43393</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2911,7 +2911,7 @@
         <v>43393</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2968,7 +2968,7 @@
         <v>43395</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3025,7 +3025,7 @@
         <v>43398</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3082,7 +3082,7 @@
         <v>43412</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3139,7 +3139,7 @@
         <v>43417</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3201,7 +3201,7 @@
         <v>43417</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -3263,7 +3263,7 @@
         <v>43417</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -3320,7 +3320,7 @@
         <v>43418</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -3377,7 +3377,7 @@
         <v>43420</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -3434,7 +3434,7 @@
         <v>43433</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -3491,7 +3491,7 @@
         <v>43433</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -3548,7 +3548,7 @@
         <v>43433</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -3605,7 +3605,7 @@
         <v>43434</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>43436</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -3719,7 +3719,7 @@
         <v>43437</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -3776,7 +3776,7 @@
         <v>43438</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -3833,7 +3833,7 @@
         <v>43442</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -3890,7 +3890,7 @@
         <v>43454</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -3947,7 +3947,7 @@
         <v>43462</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4004,7 +4004,7 @@
         <v>43464</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4061,7 +4061,7 @@
         <v>43464</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -4118,7 +4118,7 @@
         <v>43464</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -4175,7 +4175,7 @@
         <v>43473</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -4232,7 +4232,7 @@
         <v>43475</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -4289,7 +4289,7 @@
         <v>43475</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -4346,7 +4346,7 @@
         <v>43479</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -4403,7 +4403,7 @@
         <v>43479</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -4460,7 +4460,7 @@
         <v>43480</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -4517,7 +4517,7 @@
         <v>43482</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         <v>43482</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -4631,7 +4631,7 @@
         <v>43485</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -4688,7 +4688,7 @@
         <v>43486</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -4745,7 +4745,7 @@
         <v>43489</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -4802,7 +4802,7 @@
         <v>43489</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -4859,7 +4859,7 @@
         <v>43494</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -4916,7 +4916,7 @@
         <v>43496</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -4973,7 +4973,7 @@
         <v>43501</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5030,7 +5030,7 @@
         <v>43504</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5087,7 +5087,7 @@
         <v>43507</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -5144,7 +5144,7 @@
         <v>43507</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -5201,7 +5201,7 @@
         <v>43507</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>43510</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -5315,7 +5315,7 @@
         <v>43510</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -5372,7 +5372,7 @@
         <v>43524</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -5429,7 +5429,7 @@
         <v>43530</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -5486,7 +5486,7 @@
         <v>43532</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -5543,7 +5543,7 @@
         <v>43538</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -5600,7 +5600,7 @@
         <v>43542</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -5657,7 +5657,7 @@
         <v>43546</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -5714,7 +5714,7 @@
         <v>43556</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -5771,7 +5771,7 @@
         <v>43556</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -5828,7 +5828,7 @@
         <v>43578</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>43578</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -5942,7 +5942,7 @@
         <v>43578</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -5999,7 +5999,7 @@
         <v>43578</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6056,7 +6056,7 @@
         <v>43578</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -6113,7 +6113,7 @@
         <v>43578</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -6170,7 +6170,7 @@
         <v>43578</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -6227,7 +6227,7 @@
         <v>43581</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -6284,7 +6284,7 @@
         <v>43585</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -6341,7 +6341,7 @@
         <v>43588</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -6403,7 +6403,7 @@
         <v>43592</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -6460,7 +6460,7 @@
         <v>43594</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -6517,7 +6517,7 @@
         <v>43601</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -6574,7 +6574,7 @@
         <v>43601</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -6631,7 +6631,7 @@
         <v>43602</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -6688,7 +6688,7 @@
         <v>43605</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -6750,7 +6750,7 @@
         <v>43606</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -6807,7 +6807,7 @@
         <v>43606</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -6864,7 +6864,7 @@
         <v>43606</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -6921,7 +6921,7 @@
         <v>43608</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -6978,7 +6978,7 @@
         <v>43649</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7035,7 +7035,7 @@
         <v>43653</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -7092,7 +7092,7 @@
         <v>43662</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -7149,7 +7149,7 @@
         <v>43664</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -7206,7 +7206,7 @@
         <v>43670</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -7263,7 +7263,7 @@
         <v>43684</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -7320,7 +7320,7 @@
         <v>43689</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -7377,7 +7377,7 @@
         <v>43689</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -7434,7 +7434,7 @@
         <v>43690</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -7491,7 +7491,7 @@
         <v>43692</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -7553,7 +7553,7 @@
         <v>43700</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -7610,7 +7610,7 @@
         <v>43700</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -7667,7 +7667,7 @@
         <v>43704</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -7729,7 +7729,7 @@
         <v>43705</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -7791,7 +7791,7 @@
         <v>43705</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -7853,7 +7853,7 @@
         <v>43705</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -7915,7 +7915,7 @@
         <v>43705</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -7977,7 +7977,7 @@
         <v>43705</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -8039,7 +8039,7 @@
         <v>43707</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -8096,7 +8096,7 @@
         <v>43708</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -8153,7 +8153,7 @@
         <v>43710</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -8210,7 +8210,7 @@
         <v>43726</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -8267,7 +8267,7 @@
         <v>43727</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -8324,7 +8324,7 @@
         <v>43731</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -8381,7 +8381,7 @@
         <v>43731</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -8438,7 +8438,7 @@
         <v>43731</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -8495,7 +8495,7 @@
         <v>43731</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -8557,7 +8557,7 @@
         <v>43739</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -8614,7 +8614,7 @@
         <v>43739</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -8671,7 +8671,7 @@
         <v>43741</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -8728,7 +8728,7 @@
         <v>43745</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -8785,7 +8785,7 @@
         <v>43748</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -8842,7 +8842,7 @@
         <v>43761</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -8899,7 +8899,7 @@
         <v>43765</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -8956,7 +8956,7 @@
         <v>43770</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -9013,7 +9013,7 @@
         <v>43774</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -9070,7 +9070,7 @@
         <v>43774</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -9127,7 +9127,7 @@
         <v>43784</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -9184,7 +9184,7 @@
         <v>43784</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -9241,7 +9241,7 @@
         <v>43786</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -9298,7 +9298,7 @@
         <v>43787</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -9355,7 +9355,7 @@
         <v>43789</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -9412,7 +9412,7 @@
         <v>43795</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -9469,7 +9469,7 @@
         <v>43796</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -9526,7 +9526,7 @@
         <v>43796</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -9583,7 +9583,7 @@
         <v>43798</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -9640,7 +9640,7 @@
         <v>43800</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -9697,7 +9697,7 @@
         <v>43829</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -9754,7 +9754,7 @@
         <v>43833</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -9811,7 +9811,7 @@
         <v>43842</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -9888,7 +9888,7 @@
         <v>43846</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -9945,7 +9945,7 @@
         <v>43854</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -10002,7 +10002,7 @@
         <v>43860</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -10064,7 +10064,7 @@
         <v>43860</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -10126,7 +10126,7 @@
         <v>43860</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -10188,7 +10188,7 @@
         <v>43861</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -10245,7 +10245,7 @@
         <v>43861</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -10302,7 +10302,7 @@
         <v>43865</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -10364,7 +10364,7 @@
         <v>43867</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -10421,7 +10421,7 @@
         <v>43868</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -10483,7 +10483,7 @@
         <v>43868</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -10545,7 +10545,7 @@
         <v>43868</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -10607,7 +10607,7 @@
         <v>43872</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -10664,7 +10664,7 @@
         <v>43879</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -10721,7 +10721,7 @@
         <v>43881</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -10778,7 +10778,7 @@
         <v>43886</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -10835,7 +10835,7 @@
         <v>43886</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -10892,7 +10892,7 @@
         <v>43892</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -10949,7 +10949,7 @@
         <v>43893</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -11006,7 +11006,7 @@
         <v>43894</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -11063,7 +11063,7 @@
         <v>43899</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -11120,7 +11120,7 @@
         <v>43899</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -11177,7 +11177,7 @@
         <v>43901</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -11234,7 +11234,7 @@
         <v>43901</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -11291,7 +11291,7 @@
         <v>43901</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -11348,7 +11348,7 @@
         <v>43901</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -11405,7 +11405,7 @@
         <v>43902</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -11462,7 +11462,7 @@
         <v>43916</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -11519,7 +11519,7 @@
         <v>43920</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -11576,7 +11576,7 @@
         <v>43923</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -11633,7 +11633,7 @@
         <v>43927</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -11690,7 +11690,7 @@
         <v>43929</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -11747,7 +11747,7 @@
         <v>43963</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -11804,7 +11804,7 @@
         <v>43963</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -11861,7 +11861,7 @@
         <v>43966</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -11918,7 +11918,7 @@
         <v>43974</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -11975,7 +11975,7 @@
         <v>43979</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -12032,7 +12032,7 @@
         <v>43980</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -12089,7 +12089,7 @@
         <v>43986</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -12151,7 +12151,7 @@
         <v>43992</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -12208,7 +12208,7 @@
         <v>44004</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -12270,7 +12270,7 @@
         <v>44004</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -12327,7 +12327,7 @@
         <v>44010</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -12384,7 +12384,7 @@
         <v>44040</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -12441,7 +12441,7 @@
         <v>44042</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -12498,7 +12498,7 @@
         <v>44046</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -12555,7 +12555,7 @@
         <v>44048</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -12617,7 +12617,7 @@
         <v>44048</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -12674,7 +12674,7 @@
         <v>44048</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -12731,7 +12731,7 @@
         <v>44054</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -12788,7 +12788,7 @@
         <v>44054</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -12845,7 +12845,7 @@
         <v>44054</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -12902,7 +12902,7 @@
         <v>44054</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -12959,7 +12959,7 @@
         <v>44055</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -13016,7 +13016,7 @@
         <v>44060</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -13073,7 +13073,7 @@
         <v>44060</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -13130,7 +13130,7 @@
         <v>44062</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -13187,7 +13187,7 @@
         <v>44068</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -13244,7 +13244,7 @@
         <v>44074</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -13301,7 +13301,7 @@
         <v>44075</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -13358,7 +13358,7 @@
         <v>44082</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -13415,7 +13415,7 @@
         <v>44084</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -13472,7 +13472,7 @@
         <v>44088</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -13529,7 +13529,7 @@
         <v>44089</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -13586,7 +13586,7 @@
         <v>44089</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -13643,7 +13643,7 @@
         <v>44090</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -13700,7 +13700,7 @@
         <v>44105</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -13757,7 +13757,7 @@
         <v>44110</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -13814,7 +13814,7 @@
         <v>44110</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -13871,7 +13871,7 @@
         <v>44110</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -13928,7 +13928,7 @@
         <v>44116</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -13985,7 +13985,7 @@
         <v>44120</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -14042,7 +14042,7 @@
         <v>44130</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -14099,7 +14099,7 @@
         <v>44132</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -14156,7 +14156,7 @@
         <v>44137</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -14213,7 +14213,7 @@
         <v>44138</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -14270,7 +14270,7 @@
         <v>44145</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -14327,7 +14327,7 @@
         <v>44147</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -14384,7 +14384,7 @@
         <v>44154</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -14441,7 +14441,7 @@
         <v>44160</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -14498,7 +14498,7 @@
         <v>44160</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -14555,7 +14555,7 @@
         <v>44161</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -14612,7 +14612,7 @@
         <v>44161</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -14674,7 +14674,7 @@
         <v>44161</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -14736,7 +14736,7 @@
         <v>44161</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -14793,7 +14793,7 @@
         <v>44161</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -14855,7 +14855,7 @@
         <v>44161</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -14912,7 +14912,7 @@
         <v>44164</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -14969,7 +14969,7 @@
         <v>44165</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -15026,7 +15026,7 @@
         <v>44173</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -15083,7 +15083,7 @@
         <v>44175</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -15140,7 +15140,7 @@
         <v>44179</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -15197,7 +15197,7 @@
         <v>44180</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -15259,7 +15259,7 @@
         <v>44181</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -15321,7 +15321,7 @@
         <v>44182</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -15378,7 +15378,7 @@
         <v>44195</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -15435,7 +15435,7 @@
         <v>44195</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -15492,7 +15492,7 @@
         <v>44195</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -15549,7 +15549,7 @@
         <v>44201</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -15606,7 +15606,7 @@
         <v>44201</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -15663,7 +15663,7 @@
         <v>44204</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -15720,7 +15720,7 @@
         <v>44206</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -15777,7 +15777,7 @@
         <v>44206</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -15834,7 +15834,7 @@
         <v>44215</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -15891,7 +15891,7 @@
         <v>44218</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -15948,7 +15948,7 @@
         <v>44218</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -16005,7 +16005,7 @@
         <v>44220</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -16062,7 +16062,7 @@
         <v>44221</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -16119,7 +16119,7 @@
         <v>44221</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -16176,7 +16176,7 @@
         <v>44222</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -16233,7 +16233,7 @@
         <v>44229</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -16290,7 +16290,7 @@
         <v>44236</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -16347,7 +16347,7 @@
         <v>44237</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -16404,7 +16404,7 @@
         <v>44238</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -16461,7 +16461,7 @@
         <v>44238</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -16518,7 +16518,7 @@
         <v>44245</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -16575,7 +16575,7 @@
         <v>44257</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -16637,7 +16637,7 @@
         <v>44257</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -16699,7 +16699,7 @@
         <v>44265</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -16756,7 +16756,7 @@
         <v>44267</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -16818,7 +16818,7 @@
         <v>44267</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -16880,7 +16880,7 @@
         <v>44267</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -16942,7 +16942,7 @@
         <v>44270</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -16999,7 +16999,7 @@
         <v>44273</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -17056,7 +17056,7 @@
         <v>44280</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -17113,7 +17113,7 @@
         <v>44299</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -17170,7 +17170,7 @@
         <v>44299</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -17227,7 +17227,7 @@
         <v>44300</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -17284,7 +17284,7 @@
         <v>44306</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -17341,7 +17341,7 @@
         <v>44306</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -17398,7 +17398,7 @@
         <v>44309</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -17455,7 +17455,7 @@
         <v>44312</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -17512,7 +17512,7 @@
         <v>44313</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -17569,7 +17569,7 @@
         <v>44325</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -17626,7 +17626,7 @@
         <v>44333</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -17683,7 +17683,7 @@
         <v>44334</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -17745,7 +17745,7 @@
         <v>44336</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -17802,7 +17802,7 @@
         <v>44351</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -17859,7 +17859,7 @@
         <v>44354</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -17921,7 +17921,7 @@
         <v>44368</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -17978,7 +17978,7 @@
         <v>44368</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -18040,7 +18040,7 @@
         <v>44371</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -18097,7 +18097,7 @@
         <v>44391</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -18154,7 +18154,7 @@
         <v>44391</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -18211,7 +18211,7 @@
         <v>44393</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -18268,7 +18268,7 @@
         <v>44393</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -18325,7 +18325,7 @@
         <v>44393</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -18382,7 +18382,7 @@
         <v>44418</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -18439,7 +18439,7 @@
         <v>44419</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -18496,7 +18496,7 @@
         <v>44439</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -18553,7 +18553,7 @@
         <v>44441</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -18610,7 +18610,7 @@
         <v>44443</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -18667,7 +18667,7 @@
         <v>44447</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -18724,7 +18724,7 @@
         <v>44447</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -18781,7 +18781,7 @@
         <v>44448</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -18838,7 +18838,7 @@
         <v>44448</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -18895,7 +18895,7 @@
         <v>44455</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -18952,7 +18952,7 @@
         <v>44455</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -19009,7 +19009,7 @@
         <v>44462</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -19066,7 +19066,7 @@
         <v>44470</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -19123,7 +19123,7 @@
         <v>44474</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -19180,7 +19180,7 @@
         <v>44474</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -19237,7 +19237,7 @@
         <v>44477</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -19294,7 +19294,7 @@
         <v>44477</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -19351,7 +19351,7 @@
         <v>44477</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -19408,7 +19408,7 @@
         <v>44480</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -19465,7 +19465,7 @@
         <v>44488</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -19522,7 +19522,7 @@
         <v>44488</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -19579,7 +19579,7 @@
         <v>44488</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -19636,7 +19636,7 @@
         <v>44491</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -19693,7 +19693,7 @@
         <v>44497</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -19750,7 +19750,7 @@
         <v>44501</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -19807,7 +19807,7 @@
         <v>44506</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -19864,7 +19864,7 @@
         <v>44512</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -19926,7 +19926,7 @@
         <v>44512</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -19988,7 +19988,7 @@
         <v>44512</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -20050,7 +20050,7 @@
         <v>44512</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -20107,7 +20107,7 @@
         <v>44512</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -20169,7 +20169,7 @@
         <v>44512</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -20231,7 +20231,7 @@
         <v>44512</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -20293,7 +20293,7 @@
         <v>44514</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -20350,7 +20350,7 @@
         <v>44520</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -20412,7 +20412,7 @@
         <v>44530</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -20469,7 +20469,7 @@
         <v>44531</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -20526,7 +20526,7 @@
         <v>44543</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -20588,7 +20588,7 @@
         <v>44552</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -20645,7 +20645,7 @@
         <v>44553</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -20702,7 +20702,7 @@
         <v>44558</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -20759,7 +20759,7 @@
         <v>44567</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -20821,7 +20821,7 @@
         <v>44588</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -20878,7 +20878,7 @@
         <v>44593</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -20935,7 +20935,7 @@
         <v>44593</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -20992,7 +20992,7 @@
         <v>44607</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -21049,7 +21049,7 @@
         <v>44609</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -21106,7 +21106,7 @@
         <v>44609</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -21163,7 +21163,7 @@
         <v>44621</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -21220,7 +21220,7 @@
         <v>44626</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -21277,7 +21277,7 @@
         <v>44636</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -21334,7 +21334,7 @@
         <v>44636</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -21391,7 +21391,7 @@
         <v>44638</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -21448,7 +21448,7 @@
         <v>44641</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -21505,7 +21505,7 @@
         <v>44642</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -21562,7 +21562,7 @@
         <v>44648</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -21619,7 +21619,7 @@
         <v>44655</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -21676,7 +21676,7 @@
         <v>44656</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -21733,7 +21733,7 @@
         <v>44657</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -21790,7 +21790,7 @@
         <v>44657</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -21847,7 +21847,7 @@
         <v>44658</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -21904,7 +21904,7 @@
         <v>44663</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -21961,7 +21961,7 @@
         <v>44678</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -22018,7 +22018,7 @@
         <v>44679</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -22075,7 +22075,7 @@
         <v>44698</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -22132,7 +22132,7 @@
         <v>44699</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -22189,7 +22189,7 @@
         <v>44705</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -22246,7 +22246,7 @@
         <v>44725</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -22308,7 +22308,7 @@
         <v>44726</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -22365,7 +22365,7 @@
         <v>44732</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -22422,7 +22422,7 @@
         <v>44741</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -22479,7 +22479,7 @@
         <v>44742</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -22536,7 +22536,7 @@
         <v>44750</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -22593,7 +22593,7 @@
         <v>44762</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -22650,7 +22650,7 @@
         <v>44763</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -22707,7 +22707,7 @@
         <v>44768</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -22764,7 +22764,7 @@
         <v>44772</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -22821,7 +22821,7 @@
         <v>44775</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -22878,7 +22878,7 @@
         <v>44776</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -22935,7 +22935,7 @@
         <v>44776</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -22992,7 +22992,7 @@
         <v>44776</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -23049,7 +23049,7 @@
         <v>44788</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -23106,7 +23106,7 @@
         <v>44796</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -23163,7 +23163,7 @@
         <v>44809</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -23220,7 +23220,7 @@
         <v>44810</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -23277,7 +23277,7 @@
         <v>44812</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -23334,7 +23334,7 @@
         <v>44817</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -23391,7 +23391,7 @@
         <v>44823</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -23448,7 +23448,7 @@
         <v>44831</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -23505,7 +23505,7 @@
         <v>44837</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -23562,7 +23562,7 @@
         <v>44838</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -23619,7 +23619,7 @@
         <v>44845</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -23676,7 +23676,7 @@
         <v>44846</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -23733,7 +23733,7 @@
         <v>44854</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -23790,7 +23790,7 @@
         <v>44855</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -23847,7 +23847,7 @@
         <v>44858</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -23904,7 +23904,7 @@
         <v>44859</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -23966,7 +23966,7 @@
         <v>44879</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -24023,7 +24023,7 @@
         <v>44882</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -24080,7 +24080,7 @@
         <v>44882</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -24137,7 +24137,7 @@
         <v>44887</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -24199,7 +24199,7 @@
         <v>44893</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -24256,7 +24256,7 @@
         <v>44893</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -24313,7 +24313,7 @@
         <v>44894</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -24370,7 +24370,7 @@
         <v>44896</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -24427,7 +24427,7 @@
         <v>44896</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -24484,7 +24484,7 @@
         <v>44908</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -24541,7 +24541,7 @@
         <v>44916</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -24598,7 +24598,7 @@
         <v>44916</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -24655,7 +24655,7 @@
         <v>44929</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -24712,7 +24712,7 @@
         <v>44947</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -24769,7 +24769,7 @@
         <v>44951</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -24826,7 +24826,7 @@
         <v>44951</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -24883,7 +24883,7 @@
         <v>44951</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -24940,7 +24940,7 @@
         <v>44959</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -24997,7 +24997,7 @@
         <v>44959</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -25054,7 +25054,7 @@
         <v>44967</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -25111,7 +25111,7 @@
         <v>44967</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -25168,7 +25168,7 @@
         <v>44970</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -25225,7 +25225,7 @@
         <v>44971</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -25282,7 +25282,7 @@
         <v>44971</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -25339,7 +25339,7 @@
         <v>44971</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -25396,7 +25396,7 @@
         <v>45008</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -25453,7 +25453,7 @@
         <v>45008</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -25510,7 +25510,7 @@
         <v>45022</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -25567,7 +25567,7 @@
         <v>45022</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -25624,7 +25624,7 @@
         <v>45035</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -25681,7 +25681,7 @@
         <v>45035</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -25738,7 +25738,7 @@
         <v>45037</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -25800,7 +25800,7 @@
         <v>45038</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -25857,7 +25857,7 @@
         <v>45038</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -25914,7 +25914,7 @@
         <v>45040</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -25971,7 +25971,7 @@
         <v>45041</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -26028,7 +26028,7 @@
         <v>45042</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -26085,7 +26085,7 @@
         <v>45043</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -26142,7 +26142,7 @@
         <v>45043</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -26199,7 +26199,7 @@
         <v>45048</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -26256,7 +26256,7 @@
         <v>45053</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -26313,7 +26313,7 @@
         <v>45059</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -26370,7 +26370,7 @@
         <v>45070</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -26427,7 +26427,7 @@
         <v>45070</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -26484,7 +26484,7 @@
         <v>45070</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -26541,7 +26541,7 @@
         <v>45071</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -26598,7 +26598,7 @@
         <v>45071</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -26655,7 +26655,7 @@
         <v>45071</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -26712,7 +26712,7 @@
         <v>45071</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -26769,7 +26769,7 @@
         <v>45072</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -26826,7 +26826,7 @@
         <v>45075</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -26883,7 +26883,7 @@
         <v>45075</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -26940,7 +26940,7 @@
         <v>45084</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -27002,7 +27002,7 @@
         <v>45084</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -27064,7 +27064,7 @@
         <v>45084</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -27121,7 +27121,7 @@
         <v>45084</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -27183,7 +27183,7 @@
         <v>45084</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -27245,7 +27245,7 @@
         <v>45085</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -27302,7 +27302,7 @@
         <v>45086</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -27359,7 +27359,7 @@
         <v>45086</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -27416,7 +27416,7 @@
         <v>45086</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -27473,7 +27473,7 @@
         <v>45086</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -27530,7 +27530,7 @@
         <v>45087</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -27587,7 +27587,7 @@
         <v>45087</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -27644,7 +27644,7 @@
         <v>45087</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -27701,7 +27701,7 @@
         <v>45087</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -27758,7 +27758,7 @@
         <v>45089</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -27815,7 +27815,7 @@
         <v>45089</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -27872,7 +27872,7 @@
         <v>45091</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -27929,7 +27929,7 @@
         <v>45092</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -27986,7 +27986,7 @@
         <v>45092</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -28043,7 +28043,7 @@
         <v>45093</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -28100,7 +28100,7 @@
         <v>45096</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -28157,7 +28157,7 @@
         <v>45097</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -28214,7 +28214,7 @@
         <v>45098</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -28271,7 +28271,7 @@
         <v>45104</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -28328,7 +28328,7 @@
         <v>45104</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -28385,7 +28385,7 @@
         <v>45104</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -28442,7 +28442,7 @@
         <v>45114</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -28499,7 +28499,7 @@
         <v>45134</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -28556,7 +28556,7 @@
         <v>45134</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -28613,7 +28613,7 @@
         <v>45134</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -28670,7 +28670,7 @@
         <v>45139</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -28727,7 +28727,7 @@
         <v>45140</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -28784,7 +28784,7 @@
         <v>45140</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -28841,7 +28841,7 @@
         <v>45140</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -28898,7 +28898,7 @@
         <v>45140</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -28955,7 +28955,7 @@
         <v>45140</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -29012,7 +29012,7 @@
         <v>45159</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -29069,7 +29069,7 @@
         <v>45159</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -29126,7 +29126,7 @@
         <v>45161</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -29183,7 +29183,7 @@
         <v>45162</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -29240,7 +29240,7 @@
         <v>45162</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -29297,7 +29297,7 @@
         <v>45162</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -29354,7 +29354,7 @@
         <v>45162</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -29411,7 +29411,7 @@
         <v>45162</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -29468,7 +29468,7 @@
         <v>45162</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -29525,7 +29525,7 @@
         <v>45162</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -29582,7 +29582,7 @@
         <v>45163</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -29639,7 +29639,7 @@
         <v>45166</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -29696,7 +29696,7 @@
         <v>45166</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -29753,7 +29753,7 @@
         <v>45166</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -29810,7 +29810,7 @@
         <v>45166</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -29867,7 +29867,7 @@
         <v>45168</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -29924,7 +29924,7 @@
         <v>45168</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -29981,7 +29981,7 @@
         <v>45169</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -30038,7 +30038,7 @@
         <v>45181</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -30095,7 +30095,7 @@
         <v>45181</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -30152,7 +30152,7 @@
         <v>45182</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -30209,7 +30209,7 @@
         <v>45182</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -30266,7 +30266,7 @@
         <v>45189</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -30323,7 +30323,7 @@
         <v>45190</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -30380,7 +30380,7 @@
         <v>45194</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
